--- a/CMIP6.xlsx
+++ b/CMIP6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terrermoreno1/OneDrive/OneDrive - Universitat Autònoma de Barcelona/IIASA/Upscaling_Biomass/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://office365stanford-my.sharepoint.com/personal/terrer_stanford_edu/Documents/tropical-CO2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8F9DD9-BE31-C541-9E48-A807D8899F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EF8F9DD9-BE31-C541-9E48-A807D8899F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{425D3FE1-0017-6F40-A331-6DAB04D2BAE7}"/>
   <bookViews>
-    <workbookView xWindow="11720" yWindow="3460" windowWidth="27240" windowHeight="16440" xr2:uid="{D6F3D5B0-8074-B641-8BA4-2EBD822B9523}"/>
+    <workbookView xWindow="7320" yWindow="3460" windowWidth="27240" windowHeight="16440" xr2:uid="{D6F3D5B0-8074-B641-8BA4-2EBD822B9523}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>model_name</t>
   </si>
@@ -84,13 +84,16 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>CNP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -493,13 +496,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B36821E-8BD8-A345-9074-628421A8DEAB}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" thickBot="1">
+    <row r="1" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1">
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -536,10 +539,10 @@
         <v>0.1160274</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" thickBot="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -559,7 +562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17" thickBot="1">
+    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -579,7 +582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1">
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -599,7 +602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" thickBot="1">
+    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -619,7 +622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" thickBot="1">
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -639,7 +642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" thickBot="1">
+    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -659,7 +662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1">
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -679,7 +682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" thickBot="1">
+    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
